--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajsingh/Documents/git/Mr-Ohm-IowaState/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingr\OneDrive\Documents\GitHub\Mr-Ohm-IowaState\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E199C67-230E-074C-B903-488BA0BCA8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A3AEDD-3B4B-4818-B50D-B1ACCA24B8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -58,27 +58,18 @@
     <t>Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
   <si>
-    <t>1276-2568-2-ND</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
     <t>1n</t>
   </si>
   <si>
-    <t>478-1371-2-ND</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
     <t>150p</t>
   </si>
   <si>
-    <t>478-1318-2-ND</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -115,60 +106,39 @@
     <t>Resistor_SMD:R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
   </si>
   <si>
-    <t>311-100CRTR-ND</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>311-10KARTR-ND</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
     <t>5.1k</t>
   </si>
   <si>
-    <t>311-5.1KARTR-ND</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
     <t>8.2k</t>
   </si>
   <si>
-    <t>311-8.2KARTR-ND</t>
-  </si>
-  <si>
     <t>R5, R8</t>
   </si>
   <si>
     <t>3.3k</t>
   </si>
   <si>
-    <t>311-3.3KARTR-ND</t>
-  </si>
-  <si>
     <t>R6</t>
   </si>
   <si>
-    <t>311-523CRTR-ND</t>
-  </si>
-  <si>
     <t>R7</t>
   </si>
   <si>
     <t>6.8k</t>
   </si>
   <si>
-    <t>311-6.80KCRTR-ND</t>
-  </si>
-  <si>
     <t>Active ADC</t>
   </si>
   <si>
@@ -181,42 +151,27 @@
     <t>Transistor_BJT:BC847</t>
   </si>
   <si>
-    <t>BFS17NTATR-ND</t>
-  </si>
-  <si>
     <t>R5, R12</t>
   </si>
   <si>
     <t>3.9k</t>
   </si>
   <si>
-    <t>311-3.90KCRTR-ND</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
     <t>1.5k</t>
   </si>
   <si>
-    <t>311-1.50KCRTR-ND</t>
-  </si>
-  <si>
     <t>R9</t>
   </si>
   <si>
-    <t>311-820CRTR-ND</t>
-  </si>
-  <si>
     <t>R10</t>
   </si>
   <si>
     <t>2.4k</t>
   </si>
   <si>
-    <t>311-2.40KCRTR-ND</t>
-  </si>
-  <si>
     <t>R11</t>
   </si>
   <si>
@@ -232,9 +187,6 @@
     <t>https://www.mouser.com/ProductDetail/Infineon-Technologies/BFS17PE6327HTSA1?qs=K00xGehIljvSPCOfFSUK6A%3D%3D</t>
   </si>
   <si>
-    <t>1276-1003-2-ND</t>
-  </si>
-  <si>
     <t>Package_TO_SOT_SMD:SOT-23-3</t>
   </si>
   <si>
@@ -244,14 +196,62 @@
     <t>3k</t>
   </si>
   <si>
-    <t>311-3.00KCRTR-ND</t>
+    <t>1276-1003-1-ND</t>
+  </si>
+  <si>
+    <t>478-1371-1-ND</t>
+  </si>
+  <si>
+    <t>478-1318-1-ND</t>
+  </si>
+  <si>
+    <t>311-100CRCT-ND</t>
+  </si>
+  <si>
+    <t>BFS17NTACT-ND</t>
+  </si>
+  <si>
+    <t>311-10KARCT-ND</t>
+  </si>
+  <si>
+    <t>311-5.1KARCT-ND</t>
+  </si>
+  <si>
+    <t>311-8.2KARCT-ND</t>
+  </si>
+  <si>
+    <t>311-3.3KARCT-ND</t>
+  </si>
+  <si>
+    <t>311-523CRCT-ND</t>
+  </si>
+  <si>
+    <t>311-6.80KCRCT-ND</t>
+  </si>
+  <si>
+    <t>311-3.90KCRCT-ND</t>
+  </si>
+  <si>
+    <t>311-1.50KCRCT-ND</t>
+  </si>
+  <si>
+    <t>311-820CRCT-ND</t>
+  </si>
+  <si>
+    <t>311-3.00KCRCT-ND</t>
+  </si>
+  <si>
+    <t>311-2.40KCRCT-ND</t>
+  </si>
+  <si>
+    <t>726-BFS17PE6327HTSA1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,6 +393,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -737,9 +743,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1095,21 +1102,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1132,7 +1139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1152,10 +1159,10 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1163,10 +1170,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1175,10 +1182,10 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1186,10 +1193,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1198,56 +1205,56 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
       <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1255,22 +1262,22 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1278,22 +1285,22 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1301,22 +1308,22 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1324,22 +1331,22 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1347,22 +1354,22 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1370,22 +1377,22 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>523</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1393,27 +1400,27 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1436,7 +1443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1456,10 +1463,10 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1467,10 +1474,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
         <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1479,10 +1486,10 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1490,10 +1497,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1502,56 +1509,56 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
         <v>20</v>
       </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
         <v>24</v>
       </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
       <c r="G24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1559,22 +1566,22 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1582,22 +1589,22 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1605,22 +1612,22 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1628,22 +1635,22 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1651,22 +1658,22 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1674,22 +1681,22 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1697,22 +1704,22 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D31">
         <v>523</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1720,22 +1727,22 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -1743,22 +1750,22 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -1766,22 +1773,22 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D34">
         <v>820</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>16</v>
       </c>
@@ -1789,22 +1796,22 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>17</v>
       </c>
@@ -1812,22 +1819,22 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>18</v>
       </c>
@@ -1835,82 +1842,83 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
         <v>72</v>
       </c>
-      <c r="D37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" t="s">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>69</v>
+      <c r="H42" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H41" r:id="rId1"/>
+    <hyperlink ref="H42" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>